--- a/Video Tutorial BBGA spreadsheet.xlsx
+++ b/Video Tutorial BBGA spreadsheet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david_qo6snjb\OneDrive\Excel tutorial\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david_qo6snjb\OneDrive\Excel tutorial\Excel_Tutorial_BBGA_Enhanced\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8040" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExBag" sheetId="10" r:id="rId1"/>
@@ -153,7 +153,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="129">
   <si>
     <t>Ingredients</t>
   </si>
@@ -500,9 +500,6 @@
     <t>Kamut Pan loaves</t>
   </si>
   <si>
-    <t>Baker's %</t>
-  </si>
-  <si>
     <t>AP flour</t>
   </si>
   <si>
@@ -525,6 +522,24 @@
   </si>
   <si>
     <t>Sourdough Baguette</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>sea salt</t>
+  </si>
+  <si>
+    <t>Seed</t>
+  </si>
+  <si>
+    <t>Bakers' %</t>
+  </si>
+  <si>
+    <t>Batch Size</t>
+  </si>
+  <si>
+    <t>kg/baguette</t>
   </si>
 </sst>
 </file>
@@ -544,7 +559,7 @@
     <numFmt numFmtId="171" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="172" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -612,6 +627,14 @@
     <font>
       <b/>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -756,7 +779,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -941,18 +964,35 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="10" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -969,188 +1009,6 @@
     <cellStyle name="Percent 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
   </cellStyles>
   <dxfs count="85">
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -2300,6 +2158,188 @@
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
       </font>
     </dxf>
     <dxf>
@@ -2433,16 +2473,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{327E0F43-2F58-488B-9074-ECB952334438}" name="Table715" displayName="Table715" ref="A8:H18" headerRowCount="0" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{327E0F43-2F58-488B-9074-ECB952334438}" name="Table715" displayName="Table715" ref="A8:H18" headerRowCount="0" totalsRowShown="0" headerRowDxfId="84" dataDxfId="83">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{BCA7DD48-2C0F-4DFA-9BC4-7A2FD15ED947}" name="Column1" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{971BFD6E-7A0E-4720-B213-AB2D79B11200}" name="Column2" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{382AFE6B-5D5B-4AE3-9319-3B568B182286}" name="Column3" headerRowDxfId="8" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{D133A929-126D-4699-93A4-AD44911AF4D7}" name="Column4" headerRowDxfId="6" dataDxfId="5" headerRowCellStyle="Comma"/>
-    <tableColumn id="5" xr3:uid="{4DA00EB1-929F-4ADC-8844-2850DF09B06B}" name="Column5" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{FE13A441-ACF1-46ED-8C7D-FCBCC195B4AC}" name="Column6" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{9B63B3FB-A8AD-44CC-BEC4-55FAF31B4C08}" name="Column7" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{D5A2D5D6-5E95-41FC-A5FB-7248E0EA29BE}" name="Column8" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{BCA7DD48-2C0F-4DFA-9BC4-7A2FD15ED947}" name="Column1" dataDxfId="82"/>
+    <tableColumn id="2" xr3:uid="{971BFD6E-7A0E-4720-B213-AB2D79B11200}" name="Column2" dataDxfId="81"/>
+    <tableColumn id="3" xr3:uid="{382AFE6B-5D5B-4AE3-9319-3B568B182286}" name="Column3" headerRowDxfId="80" dataDxfId="79"/>
+    <tableColumn id="4" xr3:uid="{D133A929-126D-4699-93A4-AD44911AF4D7}" name="Column4" headerRowDxfId="78" dataDxfId="77" headerRowCellStyle="Comma"/>
+    <tableColumn id="5" xr3:uid="{4DA00EB1-929F-4ADC-8844-2850DF09B06B}" name="Column5" dataDxfId="76"/>
+    <tableColumn id="6" xr3:uid="{FE13A441-ACF1-46ED-8C7D-FCBCC195B4AC}" name="Column6" dataDxfId="75"/>
+    <tableColumn id="7" xr3:uid="{9B63B3FB-A8AD-44CC-BEC4-55FAF31B4C08}" name="Column7" dataDxfId="74"/>
+    <tableColumn id="8" xr3:uid="{D5A2D5D6-5E95-41FC-A5FB-7248E0EA29BE}" name="Column8" dataDxfId="73"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2455,7 +2495,7 @@
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Ingredient">
       <calculatedColumnFormula>B10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Price*Amt" dataDxfId="33">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Price*Amt" dataDxfId="20">
       <calculatedColumnFormula>VLOOKUP(BagCost1210[[#This Row],[Ingredient]],PriceList[#All],6,FALSE)*D10</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2464,38 +2504,38 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="PriceList" displayName="PriceList" ref="A1:H29" totalsRowShown="0" headerRowDxfId="32" dataDxfId="30" headerRowBorderDxfId="31" tableBorderDxfId="29" totalsRowBorderDxfId="28" headerRowCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="PriceList" displayName="PriceList" ref="A1:H29" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16" totalsRowBorderDxfId="15" headerRowCellStyle="Normal 2">
   <autoFilter ref="A1:H29" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="Item" dataDxfId="27" dataCellStyle="Normal 4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="Category" dataDxfId="26" dataCellStyle="Normal 4"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="Price" dataDxfId="25" dataCellStyle="Currency"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="lbs" dataDxfId="24" dataCellStyle="Comma"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="$/lb" dataDxfId="23" dataCellStyle="Currency">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="Item" dataDxfId="14" dataCellStyle="Normal 4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="Category" dataDxfId="13" dataCellStyle="Normal 4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="Price" dataDxfId="12" dataCellStyle="Currency"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="lbs" dataDxfId="11" dataCellStyle="Comma"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="$/lb" dataDxfId="10" dataCellStyle="Currency">
       <calculatedColumnFormula>C2/D2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="$/kg" dataDxfId="22" dataCellStyle="Currency">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="$/kg" dataDxfId="9" dataCellStyle="Currency">
       <calculatedColumnFormula>C2/(D2/2.205)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0800-000007000000}" name="Source" dataDxfId="21" dataCellStyle="Normal 4"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0800-000008000000}" name="Updated" dataDxfId="20" dataCellStyle="Normal 4"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0800-000007000000}" name="Source" dataDxfId="8" dataCellStyle="Normal 4"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0800-000008000000}" name="Updated" dataDxfId="7" dataCellStyle="Normal 4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Table5" displayName="Table5" ref="J1:M8" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Table5" displayName="Table5" ref="J1:M8" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="J1:M8" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="Product" dataDxfId="17">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="Product" dataDxfId="4">
       <calculatedColumnFormula>Bag!B4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="Cost" dataDxfId="16" dataCellStyle="Currency">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="Cost" dataDxfId="3" dataCellStyle="Currency">
       <calculatedColumnFormula>SUM(BagCost[Price*Amt])/(1000*Bag!D8/ProductWeight[[#This Row],[Grams]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="price" dataDxfId="15" dataCellStyle="Currency"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="COGS" dataDxfId="14" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="price" dataDxfId="2" dataCellStyle="Currency"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="COGS" dataDxfId="1" dataCellStyle="Percent">
       <calculatedColumnFormula>Table5[Cost]/Table5[price]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2534,7 +2574,7 @@
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0C00-000001000000}" name="Product">
       <calculatedColumnFormula>Bag!D1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0C00-000002000000}" name="Grams" dataDxfId="13">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0C00-000002000000}" name="Grams" dataDxfId="0">
       <calculatedColumnFormula>16*28.35</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2549,7 +2589,7 @@
     <tableColumn id="1" xr3:uid="{AF3FE780-59CB-4575-B3AD-2902FD184811}" name="Ingredient">
       <calculatedColumnFormula>B12</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{C31662CC-0C9D-4BB9-829C-C57FF48E0AE1}" name="Price*Amt" dataDxfId="0">
+    <tableColumn id="2" xr3:uid="{C31662CC-0C9D-4BB9-829C-C57FF48E0AE1}" name="Price*Amt" dataDxfId="72">
       <calculatedColumnFormula>VLOOKUP(BagCost16[[#This Row],[Ingredient]],PriceList[#All],6,FALSE)*D12</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2558,16 +2598,16 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table7" displayName="Table7" ref="A8:H19" headerRowCount="0" totalsRowShown="0" headerRowDxfId="84" dataDxfId="83">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table7" displayName="Table7" ref="A8:H19" headerRowCount="0" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1" dataDxfId="82"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2" dataDxfId="81"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Column3" headerRowDxfId="80" dataDxfId="79"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Column4" headerRowDxfId="78" dataDxfId="77" headerRowCellStyle="Comma"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Column5" dataDxfId="76"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Column6" dataDxfId="75"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Column7" dataDxfId="74"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Column8" dataDxfId="73"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1" dataDxfId="69"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2" dataDxfId="68"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Column3" headerRowDxfId="67" dataDxfId="66"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Column4" headerRowDxfId="65" dataDxfId="64" headerRowCellStyle="Comma"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Column5" dataDxfId="63"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Column6" dataDxfId="62"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Column7" dataDxfId="61"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Column8" dataDxfId="60"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2580,7 +2620,7 @@
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Ingredient">
       <calculatedColumnFormula>B12</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Price*Amt" dataDxfId="72">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Price*Amt" dataDxfId="59">
       <calculatedColumnFormula>VLOOKUP(BagCost[[#This Row],[Ingredient]],PriceList[#All],6,FALSE)*D12</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2589,16 +2629,16 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table713" displayName="Table713" ref="A8:H20" headerRowCount="0" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table713" displayName="Table713" ref="A8:H20" headerRowCount="0" totalsRowShown="0" headerRowDxfId="58" dataDxfId="57">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Column1" dataDxfId="69"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Column2" dataDxfId="68"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Column3" headerRowDxfId="67" dataDxfId="66"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Column4" headerRowDxfId="65" dataDxfId="64" headerRowCellStyle="Comma"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Column5" dataDxfId="63"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Column6" dataDxfId="62"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Column7" dataDxfId="61"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Column8" dataDxfId="60"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Column1" dataDxfId="56"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Column2" dataDxfId="55"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Column3" headerRowDxfId="54" dataDxfId="53"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Column4" headerRowDxfId="52" dataDxfId="51" headerRowCellStyle="Comma"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Column5" dataDxfId="50"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Column6" dataDxfId="49"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Column7" dataDxfId="48"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Column8" dataDxfId="47"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2611,7 +2651,7 @@
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Ingredient">
       <calculatedColumnFormula>B12</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Price*Amt" dataDxfId="59">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Price*Amt" dataDxfId="46">
       <calculatedColumnFormula>VLOOKUP(BagCost14[[#This Row],[Ingredient]],PriceList[#All],6,FALSE)*D12</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2623,15 +2663,15 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table711" displayName="Table711" ref="A4:J19" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Column1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Column2" dataDxfId="58"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Column3" headerRowDxfId="57" dataDxfId="56"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Column4" headerRowDxfId="55" dataDxfId="54" headerRowCellStyle="Comma"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="Column9" headerRowDxfId="53" dataDxfId="52" headerRowCellStyle="Comma"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="Column10" headerRowDxfId="51" dataDxfId="50" headerRowCellStyle="Comma"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Column5" dataDxfId="49"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Column6" dataDxfId="48"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="Column7" dataDxfId="47"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="Column8" dataDxfId="46"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Column2" dataDxfId="45"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Column3" headerRowDxfId="44" dataDxfId="43"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Column4" headerRowDxfId="42" dataDxfId="41" headerRowCellStyle="Comma"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="Column9" headerRowDxfId="40" dataDxfId="39" headerRowCellStyle="Comma"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="Column10" headerRowDxfId="38" dataDxfId="37" headerRowCellStyle="Comma"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Column5" dataDxfId="36"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Column6" dataDxfId="35"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="Column7" dataDxfId="34"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="Column8" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2644,7 +2684,7 @@
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Ingredient">
       <calculatedColumnFormula>B8</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Price*Amt" dataDxfId="45">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Price*Amt" dataDxfId="32">
       <calculatedColumnFormula>VLOOKUP(BagCost12[[#This Row],[Ingredient]],PriceList[#All],6,FALSE)*D8</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2656,13 +2696,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table7119" displayName="Table7119" ref="A6:H21" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Column1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Column2" dataDxfId="44"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="Column3" headerRowDxfId="43" dataDxfId="42"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="Column4" headerRowDxfId="41" dataDxfId="40" headerRowCellStyle="Comma"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0600-000009000000}" name="Column9" headerRowDxfId="39" dataDxfId="38" headerRowCellStyle="Comma"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0600-00000A000000}" name="Column10" headerRowDxfId="37" dataDxfId="36" headerRowCellStyle="Comma"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0600-000007000000}" name="Column7" dataDxfId="35"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0600-000008000000}" name="Column8" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Column2" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="Column3" headerRowDxfId="30" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="Column4" headerRowDxfId="28" dataDxfId="27" headerRowCellStyle="Comma"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0600-000009000000}" name="Column9" headerRowDxfId="26" dataDxfId="25" headerRowCellStyle="Comma"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0600-00000A000000}" name="Column10" headerRowDxfId="24" dataDxfId="23" headerRowCellStyle="Comma"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0600-000007000000}" name="Column7" dataDxfId="22"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0600-000008000000}" name="Column8" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2970,8 +3010,8 @@
   </sheetPr>
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -2987,7 +3027,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="D1" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
@@ -3298,7 +3338,7 @@
       <c r="B18" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="102">
+      <c r="C18" s="100">
         <f>SUM(C11:C16)</f>
         <v>2.7497700000000003</v>
       </c>
@@ -5614,7 +5654,7 @@
       <c r="M1" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="O1" s="98" t="s">
+      <c r="O1" s="101" t="s">
         <v>92</v>
       </c>
     </row>
@@ -5660,7 +5700,7 @@
         <f>Table5[Cost]/Table5[price]</f>
         <v>6.234993179117175E-2</v>
       </c>
-      <c r="O2" s="99"/>
+      <c r="O2" s="102"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
@@ -6547,41 +6587,148 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{465E0C52-675A-4C90-83D5-66F5953B7F0E}">
-  <dimension ref="A3:C4"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="103"/>
+    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="C1" s="109" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" s="103" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="98"/>
+      <c r="B7" t="s">
         <v>115</v>
       </c>
-      <c r="B3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="100">
+      <c r="C7" s="105">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C4">
-        <v>1000</v>
+      <c r="D7" s="104">
+        <f>C$3*C$15*C7/SUM(C$7:C$11)</f>
+        <v>12.961481312149962</v>
+      </c>
+      <c r="F7" s="107"/>
+      <c r="I7" s="108"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="105">
+        <v>0.7</v>
+      </c>
+      <c r="D8" s="104">
+        <f t="shared" ref="D8:D11" si="0">C$3*C$15*C8/SUM(C$7:C$11)</f>
+        <v>9.0730369185049717</v>
+      </c>
+      <c r="F8" s="107"/>
+      <c r="I8" s="108"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="106">
+        <v>0.02</v>
+      </c>
+      <c r="D9" s="104">
+        <f t="shared" si="0"/>
+        <v>0.25922962624299922</v>
+      </c>
+      <c r="F9" s="107"/>
+      <c r="I9" s="108"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="106">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D10" s="104">
+        <f t="shared" si="0"/>
+        <v>6.4807406560749804E-3</v>
+      </c>
+      <c r="F10" s="107"/>
+      <c r="I10" s="108"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11" s="106">
+        <v>2.93E-2</v>
+      </c>
+      <c r="D11" s="104">
+        <f t="shared" si="0"/>
+        <v>0.37977140244599389</v>
+      </c>
+      <c r="F11" s="107"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="106">
+        <f>SUM(C7:C11)</f>
+        <v>1.7498</v>
+      </c>
+      <c r="D12" s="104">
+        <f>SUM(D7:D11)</f>
+        <v>22.68</v>
+      </c>
+      <c r="F12" s="107"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" s="1">
+        <v>28.35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" s="1">
+        <f>0.001*16*C14</f>
+        <v>0.45360000000000006</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6595,37 +6742,37 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="101" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" style="99" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="99" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="99" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="99" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="101" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="99" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="101" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="101" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="99" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="101" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="99" t="s">
         <v>121</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="101" t="s">
-        <v>122</v>
       </c>
     </row>
   </sheetData>
